--- a/GrootanTechnology/Excelsheet/Test_Data.xlsx
+++ b/GrootanTechnology/Excelsheet/Test_Data.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="3555" windowWidth="15780" xWindow="0" yWindow="2520"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15780" windowHeight="3555"/>
   </bookViews>
   <sheets>
-    <sheet name="TSR" r:id="rId1" sheetId="1"/>
-    <sheet name="JuniorEngineers" r:id="rId2" sheetId="2"/>
+    <sheet name="TSR" sheetId="1" r:id="rId1"/>
+    <sheet name="JuniorEngineers" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>TC_NO</t>
   </si>
@@ -86,14 +86,16 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Fail</t>
+    <t>TC_009</t>
+  </si>
+  <si>
+    <t>TC09_CompareCTOHR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -150,23 +152,23 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -175,10 +177,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -334,7 +336,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -343,13 +345,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -359,7 +361,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -368,7 +370,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -377,7 +379,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -387,12 +389,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -423,7 +425,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -442,7 +444,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -455,17 +457,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="21.42578125" collapsed="true"/>
-    <col min="3" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -498,7 +500,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -509,7 +511,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -520,7 +522,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -531,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -542,7 +544,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -567,24 +569,35 @@
         <v>17</v>
       </c>
     </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="1" max="1" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -604,6 +617,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>